--- a/assets/disciplinas/LOM3231.xlsx
+++ b/assets/disciplinas/LOM3231.xlsx
@@ -134,11 +134,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOM3259 -  Materiais e Dispositivos Eletrônicos  (Indicação de Conjunto)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOM3234 -  Óptica Física  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3259 -  Materiais e Dispositivos Eletrônicos  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3231.xlsx
+++ b/assets/disciplinas/LOM3231.xlsx
@@ -134,11 +134,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOM3234 -  Óptica Física  (Requisito)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOM3259 -  Materiais e Dispositivos Eletrônicos  (Indicação de Conjunto)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3234 -  Óptica Física  (Requisito)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3231.xlsx
+++ b/assets/disciplinas/LOM3231.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar as técnicas experimentais de caracterização de propriedades ópticas de materiais.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Estudo das técnicas de caracterização de propriedades ópticas de materiais.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Óptica geométrica e instrumentos ópticos - microscópios. Guias de onda e fibras ópticas. Detectores de luz: fotomultiplicadores, APD e câmeras CCD. Medições de interferência e coerência. Interferômetros por divisão de frente de onda, por lâmina de vidro e de Michelson. Luz coerente e luz espontânea. Sistema óptico difrator e formador de imagens. Medição interferométrica de índice de refração de um gás. Sistema monocromador e espectros de fontes luminosas.  Difração da luz, Óptica de sólidos: dielétricos isotrópicos, condutores, interfaces com índices de refração complexos, meios anisotrópicos, cristais eletroópticos, óptica não-linear. Propriedades ópticas: análise de Kramers-Konig, elipsometria espectroscópica e refletometria diferencial. Espectro óptico de metais puros, ligas metálicas, semicondutores e isolantes. Emissão de luz: emissão espontânea e emissão estimulada.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,29 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Experimentos desenvolvidos em laboratório didático, realização de relatórios para cada experimento e de testes sobre o experimento em estudo.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética de duas provas escritas, testes, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + P2 + TR)/3</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita e prática dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>FOX, M. Optical Properties of Solids, Oxford University Press, 2010.
-FOWLES, G. R. Introduction to Modern Optics; New York, Holt, Rinehart and Winston, 1965.
-ZILLIO, S. C. Óptica Moderna - Fundamentos e Aplicações, 2005. 
-HUMMEL, R. E. Electronic Properties of Materials, Springer, 2000.
-VON HIPPEL, A. R. Dielectric Materials and Applications, Artech House, 1995.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -495,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,114 +607,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
